--- a/数据整理/stocks/港股/00868-信义玻璃.xlsx
+++ b/数据整理/stocks/港股/00868-信义玻璃.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,20 +512,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.20</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1344</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,636 +550,866 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.23</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.20</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1344</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>008972</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>大成恒生综合中小型股指数C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>90.63</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1.04</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>040018</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安香港精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.89</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519779</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>89.47</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006658</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>93.94</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>3.64</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501307</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>501305</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005051</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005052</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>501306</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004996</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>501303</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004532</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>95.17</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>95.17</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005142</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>78.08</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005143</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>78.08</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005197</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005198</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006123</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>中融高股息精选混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>006124</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中融高股息精选混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>9</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1169,7 +1419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1190,15 +1440,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>001605</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>富兰克林国海沪港深成长精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>113.25</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8539</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>010591</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>富国中国中小盘混合(QDII)美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>55.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5940</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501305</t>
+          <t>100061</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+          <t>富国中国中小盘混合(QDII)人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>55.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5940</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501306</t>
+          <t>009846</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+          <t>富兰克林国海港股通远见价值混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.48</t>
+          <t>29.94</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2665</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>457001</t>
+          <t>006370</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国富亚洲机会股票 (QDII)</t>
+          <t>国富大中华精选混合QDII美元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.07</t>
+          <t>39.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0192</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1350,25 +1660,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005197</t>
+          <t>000934</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
+          <t>国富大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>39.97</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0192</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005198</t>
+          <t>010744</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
+          <t>工银瑞信灵动价值混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>40.58</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
+          <t>47.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7954</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1406,25 +1736,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006039</t>
+          <t>005197</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>富兰克林国海估值优势灵活配置混合</t>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>84.11</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4009</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009846</t>
+          <t>519779</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富兰克林国海港股通远见价值混合</t>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>86.79</t>
+          <t>8.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3223</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006123</t>
+          <t>457001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中融高股息精选混合A</t>
+          <t>国富亚洲机会股票 (QDII)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.62</t>
+          <t>8.43</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3178</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006124</t>
+          <t>006039</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中融高股息精选混合C</t>
+          <t>富兰克林国海估值优势灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>89.62</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>84.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1528,15 +1898,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>93.17</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>4.60</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1546,25 +1926,35 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006370</t>
+          <t>005198</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII美元</t>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>83.82</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006658</t>
+          <t>501305</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数A</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006659</t>
+          <t>010745</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>财通中证香港红利等权投资指数C</t>
+          <t>工银瑞信灵动价值混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.40</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>47.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>000934</t>
+          <t>006123</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII</t>
+          <t>中融高股息精选混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>83.82</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010591</t>
+          <t>501306</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)美元</t>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>78.93</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>501303</t>
+          <t>006658</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+          <t>财通中证香港红利等权投资指数A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>004996</t>
+          <t>006124</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+          <t>中融高股息精选混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>010744</t>
+          <t>004532</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>工银瑞信灵动价值混合A</t>
+          <t>民生加银中证港股通高股息精选指数A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>47.66</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>010745</t>
+          <t>501303</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>工银瑞信灵动价值混合C</t>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>47.66</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.96</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>100061</t>
+          <t>004533</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>富国中国中小盘混合(QDII)人民币</t>
+          <t>民生加银中证港股通高股息精选指数C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>78.93</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001605</t>
+          <t>004996</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>富兰克林国海沪港深成长精选股票</t>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>86.68</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>519779</t>
+          <t>160922</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>83.96</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>4</v>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>160922</t>
+          <t>006659</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+          <t>财通中证香港红利等权投资指数C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93.53</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>3</v>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00868-信义玻璃.xlsx
+++ b/数据整理/stocks/港股/00868-信义玻璃.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2417,4 +2418,1312 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001605</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富兰克林国海沪港深成长精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>110.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.0262</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3285</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3285</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009846</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富兰克林国海港股通远见价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5524</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2519</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>39.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2519</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010744</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9754</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全沪港深两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9058</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7895</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3953</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>457001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国富亚洲机会股票 (QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3372</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2918</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006039</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富兰克林国海估值优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010745</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信灵动价值混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>080006</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛环球行业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501023</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华港股通中证香港中小企业投资主题指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00868-信义玻璃.xlsx
+++ b/数据整理/stocks/港股/00868-信义玻璃.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3726,4 +3727,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2655</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2655</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>241001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝海外中国混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00868-信义玻璃.xlsx
+++ b/数据整理/stocks/港股/00868-信义玻璃.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4427,4 +4428,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.24</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00868-信义玻璃.xlsx
+++ b/数据整理/stocks/港股/00868-信义玻璃.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4436,7 +4437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4447,17 +4448,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4467,14 +4488,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.04</v>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2409</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4483,14 +4526,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.24</v>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4499,14 +4564,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.75</v>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4515,13 +4602,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>24</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00868-信义玻璃.xlsx
+++ b/数据整理/stocks/港股/00868-信义玻璃.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4683,7 +4684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4694,17 +4695,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4714,14 +4735,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.36</v>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -4730,14 +4773,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.04</v>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4746,14 +4811,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.24</v>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -4762,14 +4849,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.75</v>
+          <t>011647</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4778,13 +4887,243 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011648</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时港股通红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>24</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00868-信义玻璃.xlsx
+++ b/数据整理/stocks/港股/00868-信义玻璃.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5006,7 +5007,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5017,17 +5018,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5037,14 +5058,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -5053,14 +5096,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.36</v>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5069,14 +5134,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.04</v>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5085,14 +5172,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.24</v>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -5101,14 +5210,152 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>005770</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银中证沪港深高股息精选指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>11.75</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="7">
@@ -5117,13 +5364,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>24</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.01</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00868-信义玻璃.xlsx
+++ b/数据整理/stocks/港股/00868-信义玻璃.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -504,11 +505,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0.1</v>
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>3.04</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>17.24</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>11.75</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>24</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.01</v>
       </c>
     </row>
@@ -600,6 +617,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -845,7 +994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1167,7 +1316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1413,7 +1562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2113,7 +2262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3421,7 +3570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4427,7 +4576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00868-信义玻璃.xlsx
+++ b/数据整理/stocks/港股/00868-信义玻璃.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -521,11 +522,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>0.1</v>
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.04</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>17.24</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D8" t="n">
-        <v>11.75</v>
+        <v>17.24</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,998 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>25</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>24</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1344</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1344</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2096</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005051</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501305</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005052</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根标普港股通低波红利指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501306</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005143</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006658</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501307</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006659</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通中证香港红利等权投资指数C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501308</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银河中证沪港深高股息指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -673,36 +1658,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004532</t>
+          <t>513690</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
+          <t>博时恒生港股通高股息率ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>98.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0050</t>
+          <t>0.1336</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -711,32 +1696,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004533</t>
+          <t>159726</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
+          <t>华夏恒生中国内地企业高股息率ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>98.34</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0237</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -749,6 +1734,138 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004532</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004533</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>民生加银中证港股通高股息精选指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -994,7 +2111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1316,7 +2433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1562,7 +2679,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2262,7 +3379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3570,7 +4687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4574,972 +5691,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>010591</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富国中国中小盘混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>35.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1344</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>100061</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富国中国中小盘混合(QDII)人民币</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>35.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1344</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519779</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银施罗德沪港深价值精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.47</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2096</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>040018</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安香港精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1288</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005197</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0650</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005198</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0622</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005051</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0580</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501305</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0407</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005142</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>78.08</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0389</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006123</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>中融高股息精选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0356</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005052</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>上投摩根标普港股通低波红利指数C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.65</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0200</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>501306</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富中证港股通高股息投资指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.78</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0191</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005143</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>78.08</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0179</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006658</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0091</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>501303</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>006124</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中融高股息精选混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.87</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.79</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>501307</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004532</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>95.17</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>004533</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>民生加银中证港股通高股息精选指数C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>95.17</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0047</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004996</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008972</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006659</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>财通中证香港红利等权投资指数C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>501308</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>银河中证沪港深高股息指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>93.66</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>